--- a/temp_res/data.xlsx
+++ b/temp_res/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Local Documents\data-parser\temp_res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{459EDEC8-AF3D-4368-9623-B38D07334FFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC0C26B-EB35-499A-9F8A-AA2396382427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{9F046808-4709-4E01-9B69-8D5800F2244F}"/>
+    <workbookView xWindow="9090" yWindow="1530" windowWidth="19650" windowHeight="12915" xr2:uid="{9F046808-4709-4E01-9B69-8D5800F2244F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,24 +33,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Portillo</t>
-  </si>
-  <si>
-    <t>July 25th, 1992</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Date of Birth</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>Maker</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>Celica</t>
+  </si>
+  <si>
+    <t>value with no column</t>
+  </si>
+  <si>
+    <t>column with no value</t>
+  </si>
+  <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>Mustang</t>
+  </si>
+  <si>
+    <t>2020-20-20</t>
+  </si>
+  <si>
+    <t>Porsche</t>
+  </si>
+  <si>
+    <t>Boxter</t>
+  </si>
+  <si>
+    <t>25/07/1992</t>
+  </si>
+  <si>
+    <t>BMW</t>
+  </si>
+  <si>
+    <t>X6</t>
+  </si>
+  <si>
+    <t>30/02/2020</t>
+  </si>
+  <si>
+    <t>JEEP</t>
+  </si>
+  <si>
+    <t>Wrangler</t>
+  </si>
+  <si>
+    <t>12/12/2020</t>
+  </si>
+  <si>
+    <t>GMC</t>
+  </si>
+  <si>
+    <t>Acadia</t>
+  </si>
+  <si>
+    <t>20/20/2020</t>
   </si>
 </sst>
 </file>
@@ -86,8 +140,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,39 +457,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4488F2E8-0A91-4873-9EB9-8F136172F47A}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
+      <c r="C2">
+        <v>35000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44124</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>32000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>72000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>72000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>72000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>72000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/temp_res/data.xlsx
+++ b/temp_res/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Local Documents\data-parser\temp_res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC0C26B-EB35-499A-9F8A-AA2396382427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF31AF05-9B05-4DB3-A81C-77B7BF376272}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9090" yWindow="1530" windowWidth="19650" windowHeight="12915" xr2:uid="{9F046808-4709-4E01-9B69-8D5800F2244F}"/>
+    <workbookView xWindow="4095" yWindow="705" windowWidth="18885" windowHeight="13905" xr2:uid="{9F046808-4709-4E01-9B69-8D5800F2244F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Maker</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>20/20/2020</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -460,7 +463,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,6 +540,9 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
